--- a/data/trans_dic/iP30B5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B5_2023-Edad-trans_dic.xlsx
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>90,16%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,68%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>86,59; 94,71</t>
+          <t>85,81; 93,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>87,76; 93,56</t>
+          <t>88,71; 96,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>87,89; 93,21</t>
+          <t>88,81; 93,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>92,02%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>90,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>91,46%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>85,81; 93,27</t>
+          <t>86,59; 94,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,71; 96,06</t>
+          <t>87,76; 93,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>88,81; 93,93</t>
+          <t>87,89; 93,21</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/iP30B5_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/iP30B5_2023-Edad-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,37%</t>
+          <t>97,59%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>94,25%</t>
+          <t>94,7%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>88,96; 96,64</t>
+          <t>83,18; 96,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>91,04; 97,76</t>
+          <t>90,36; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,51; 96,42</t>
+          <t>90,01; 97,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>91,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,71%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>92,29%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>85,81; 93,27</t>
+          <t>86,92; 93,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>88,71; 96,06</t>
+          <t>90,38; 96,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>88,81; 93,93</t>
+          <t>89,19; 94,21</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>92,02%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>90,81%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>86,59; 94,71</t>
+          <t>88,45; 95,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,76; 93,56</t>
+          <t>85,65; 94,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,89; 93,21</t>
+          <t>89,14; 94,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>91,36%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,22%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>91,11%</t>
         </is>
       </c>
     </row>
@@ -729,23 +729,81 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>88,41; 93,61</t>
+          <t>84,73; 94,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>89,9; 93,82</t>
+          <t>86,83; 93,47</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>90,18; 93,25</t>
+          <t>87,27; 93,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>91,66%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92,22%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>91,93%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>88,6; 93,73</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89,96; 93,89</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>90,17; 93,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
